--- a/Orbit-PCB/Elecrow/OrbitQuote.xlsx
+++ b/Orbit-PCB/Elecrow/OrbitQuote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Documents\GitHub\Orbit\Orbit-PCB\Elecrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766E2E8-C895-4691-86CE-136F8AB1544E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D24BA1-8238-4AFA-8B1E-063E33773036}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Specification" sheetId="5" r:id="rId1"/>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1786,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1819,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1886,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Orbit-PCB/Elecrow/OrbitQuote.xlsx
+++ b/Orbit-PCB/Elecrow/OrbitQuote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Documents\GitHub\Orbit\Orbit-PCB\Elecrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D24BA1-8238-4AFA-8B1E-063E33773036}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE8FF2-24F2-449B-AD42-AABBA996B4B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Specification" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>PCB Quantity</t>
   </si>
@@ -226,7 +227,7 @@
       </rPr>
       <t>the component must have complete Manufacture part number</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>303.212 mm * 145.256 mm</t>
@@ -262,9 +263,6 @@
     <t>Q1 Q2</t>
   </si>
   <si>
-    <t>R1 R25 R45 R67 R87 R88</t>
-  </si>
-  <si>
     <t>R33 R40 R81 R82 R89 R90 R91 R92</t>
   </si>
   <si>
@@ -482,18 +480,77 @@
   </si>
   <si>
     <t>SER4068CT-ND</t>
+  </si>
+  <si>
+    <t>D75 D76</t>
+  </si>
+  <si>
+    <t>R25 R67 R87 R88</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diode, schottky, forward voltage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0.5V, forward current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1A</t>
+    </r>
+  </si>
+  <si>
+    <t>MBRX120LF-TPMSCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,6 +814,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1084,193 +1147,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1279,38 +1339,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
@@ -1706,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1718,10 +1783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1731,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1844,22 +1909,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1874,7 +1939,7 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -1886,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1902,20 +1967,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="25">
-      <c r="A1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="A1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="14">
       <c r="A2" s="5" t="s">
@@ -1956,26 +2021,26 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
-      <c r="A3" s="13">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="23">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>95</v>
+      <c r="D3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="H3" s="5">
         <f>(2*6)</f>
@@ -1991,26 +2056,26 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
-      <c r="A4" s="13">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>95</v>
+      <c r="D4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="5">
         <f>(2*2)</f>
@@ -2021,31 +2086,31 @@
         <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1">
-      <c r="A5" s="13">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>95</v>
+      <c r="D5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="H5" s="5">
         <f>(2*2)</f>
@@ -2056,31 +2121,31 @@
         <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1">
-      <c r="A6" s="13">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="23">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>95</v>
+      <c r="D6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="H6" s="5">
         <f>(2*4)</f>
@@ -2091,31 +2156,31 @@
         <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1">
-      <c r="A7" s="13">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="23">
         <v>68</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
+      <c r="D7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="H7" s="5">
         <f>(2*68)</f>
@@ -2129,166 +2194,164 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
-      <c r="A8" s="13">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="5">
+        <f>(2*2)</f>
+        <v>4</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="23">
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="D9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="5">
         <f>(2*1)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="K9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="23">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
+      <c r="D10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
         <f>(4*2)</f>
         <v>8</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="19" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <f>(2*3)</f>
         <v>6</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="13">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="5">
-        <f>(2*6)</f>
-        <v>12</v>
-      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1">
-      <c r="A12" s="13">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="23">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5">
+        <f>(2*4)</f>
         <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="5">
-        <f>(2*8)</f>
-        <v>16</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
@@ -2298,30 +2361,30 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
-      <c r="A13" s="13">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>77</v>
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="23">
+        <v>8</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H13" s="5">
-        <f>(2*4)</f>
-        <v>8</v>
+        <f>(2*8)</f>
+        <v>16</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -2331,30 +2394,30 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1">
-      <c r="A14" s="13">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>77</v>
+      <c r="B14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="23">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23">
+        <v>22</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>96</v>
+        <v>106</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H14" s="5">
-        <f>(2*2)</f>
-        <v>4</v>
+        <f>(2*4)</f>
+        <v>8</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
@@ -2364,30 +2427,30 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1">
-      <c r="A15" s="13">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13">
-        <v>68</v>
-      </c>
-      <c r="D15" s="13">
-        <v>470</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>77</v>
+      <c r="B15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H15" s="5">
-        <f>(2*68)</f>
-        <v>136</v>
+        <f>(2*2)</f>
+        <v>4</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
@@ -2397,30 +2460,30 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>77</v>
+      <c r="B16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="23">
+        <v>68</v>
+      </c>
+      <c r="D16" s="23">
+        <v>470</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H16" s="5">
-        <f>(2*4)</f>
-        <v>8</v>
+        <f>(2*68)</f>
+        <v>136</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -2430,26 +2493,26 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1">
-      <c r="A17" s="13">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>87</v>
+      <c r="B17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="23">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H17" s="5">
         <f>(2*4)</f>
@@ -2463,63 +2526,63 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1">
-      <c r="A18" s="13">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="23">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>78</v>
+      <c r="D18" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="5">
+        <f>(2*4)</f>
+        <v>8</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="5">
         <f>(2*45)</f>
         <v>90</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="5">
-        <f>2*4</f>
-        <v>8</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
@@ -2529,87 +2592,106 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1">
-      <c r="A20" s="13">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="23">
         <v>2</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>80</v>
+      <c r="D20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="H20" s="5">
-        <f>2*12</f>
-        <v>24</v>
-      </c>
-      <c r="I20" s="5">
         <f>2*4</f>
         <v>8</v>
       </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="19" t="s">
-        <v>103</v>
+      <c r="L20" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1">
-      <c r="A21" s="13">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="23">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>81</v>
+      <c r="D21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="H21" s="5">
+        <f>(2*12)</f>
+        <v>24</v>
+      </c>
+      <c r="I21" s="5">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="14">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+    <row r="22" spans="1:12" s="4" customFormat="1">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="5">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
@@ -2620,7 +2702,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2853,7 +2935,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L20" r:id="rId1" xr:uid="{162DF212-42AD-4C4C-A49C-669043FFA431}"/>
     <hyperlink ref="L9" r:id="rId2" xr:uid="{EE35E951-EE56-4D3B-BBA2-237225290EF4}"/>
@@ -2875,11 +2957,11 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -2905,7 +2987,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4354,7 +4436,7 @@
       <c r="F181" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/Orbit-PCB/Elecrow/OrbitQuote.xlsx
+++ b/Orbit-PCB/Elecrow/OrbitQuote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Documents\GitHub\Orbit\Orbit-PCB\Elecrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE8FF2-24F2-449B-AD42-AABBA996B4B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1F76D-BC07-409E-822A-9D51B3442E68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
   <si>
     <t>PCB Quantity</t>
   </si>
@@ -1357,18 +1357,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1364,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
@@ -1783,10 +1783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1909,22 +1909,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1967,20 +1967,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="14">
       <c r="A2" s="5" t="s">
@@ -2021,25 +2021,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
-      <c r="A3" s="23">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>6</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H3" s="5">
@@ -2056,25 +2056,25 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
-      <c r="A4" s="23">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H4" s="5">
@@ -2091,25 +2091,25 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1">
-      <c r="A5" s="23">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H5" s="5">
@@ -2126,25 +2126,25 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1">
-      <c r="A6" s="23">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>94</v>
       </c>
       <c r="H6" s="5">
@@ -2161,25 +2161,25 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>68</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="19" t="s">
         <v>93</v>
       </c>
       <c r="H7" s="5">
@@ -2194,56 +2194,58 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
-      <c r="A8" s="23">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>124</v>
       </c>
       <c r="H8" s="5">
         <f>(2*2)</f>
         <v>4</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="22"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="19" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="5">
@@ -2262,25 +2264,25 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1">
-      <c r="A10" s="23">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="19">
         <v>2</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="5"/>
@@ -2295,25 +2297,25 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1">
-      <c r="A11" s="23">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="20" t="s">
         <v>115</v>
       </c>
       <c r="H11" s="5">
@@ -2328,25 +2330,25 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="19">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H12" s="5">
@@ -2361,25 +2363,25 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <v>8</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="5">
@@ -2394,25 +2396,25 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <v>4</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="19">
         <v>22</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H14" s="5">
@@ -2427,25 +2429,25 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="19">
         <v>2</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H15" s="5">
@@ -2460,25 +2462,25 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <v>68</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="19">
         <v>470</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="5">
@@ -2493,25 +2495,25 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1">
-      <c r="A17" s="23">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <v>4</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H17" s="5">
@@ -2526,25 +2528,25 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1">
-      <c r="A18" s="23">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>2</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="5">
@@ -2559,25 +2561,25 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1">
-      <c r="A19" s="23">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="19" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="5">
@@ -2592,25 +2594,25 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1">
-      <c r="A20" s="23">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="19">
         <v>2</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="21" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="5">
@@ -2627,25 +2629,25 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1">
-      <c r="A21" s="23">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>2</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>98</v>
       </c>
       <c r="H21" s="5">
@@ -2663,25 +2665,25 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1">
-      <c r="A22" s="23">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="19">
         <v>2</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="19" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="5">

--- a/Orbit-PCB/Elecrow/OrbitQuote.xlsx
+++ b/Orbit-PCB/Elecrow/OrbitQuote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Documents\GitHub\Orbit\Orbit-PCB\Elecrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B1F76D-BC07-409E-822A-9D51B3442E68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC26B8-8275-4151-A6F2-ADA0C40B9618}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       </rPr>
       <t>the component must have complete Manufacture part number</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>303.212 mm * 145.256 mm</t>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>R25 R67 R87 R88</t>
+  </si>
+  <si>
+    <t>MBRX120LF-TPMSCT-ND</t>
   </si>
   <si>
     <r>
@@ -529,21 +532,35 @@
       </rPr>
       <t>1A</t>
     </r>
-  </si>
-  <si>
-    <t>MBRX120LF-TPMSCT-ND</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, DC reverse max ≥15V</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,164 +1164,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,28 +1329,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1342,40 +1356,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
@@ -1783,10 +1800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1909,22 +1926,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1939,7 +1956,7 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -1952,7 +1969,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1962,25 +1979,25 @@
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="7" max="7" width="68.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="14">
       <c r="A2" s="5" t="s">
@@ -2210,10 +2227,10 @@
         <v>74</v>
       </c>
       <c r="F8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="H8" s="5">
         <f>(2*2)</f>
@@ -2937,7 +2954,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L20" r:id="rId1" xr:uid="{162DF212-42AD-4C4C-A49C-669043FFA431}"/>
     <hyperlink ref="L9" r:id="rId2" xr:uid="{EE35E951-EE56-4D3B-BBA2-237225290EF4}"/>
@@ -2963,7 +2980,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -4438,7 +4455,7 @@
       <c r="F181" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>

--- a/Orbit-PCB/Elecrow/OrbitQuote.xlsx
+++ b/Orbit-PCB/Elecrow/OrbitQuote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Documents\GitHub\Orbit\Orbit-PCB\Elecrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC26B8-8275-4151-A6F2-ADA0C40B9618}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFE46B-3577-499D-9F13-0F1B1AF5E4BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Parts Mapping" sheetId="2" r:id="rId3"/>
     <sheet name="Position File" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -356,9 +356,6 @@
     <t>HRO-TYPE-C-31-M-12-Assembly</t>
   </si>
   <si>
-    <t>Crystal_SMD_2520-4pin_2.5x2.0mm</t>
-  </si>
-  <si>
     <t>Orbit PCB Specification</t>
   </si>
   <si>
@@ -474,12 +471,6 @@
   </si>
   <si>
     <t>15pcs</t>
-  </si>
-  <si>
-    <t>Crystal, 16MHz, 2.5 x 2.0mm</t>
-  </si>
-  <si>
-    <t>SER4068CT-ND</t>
   </si>
   <si>
     <t>D75 D76</t>
@@ -542,6 +533,15 @@
       </rPr>
       <t>, DC reverse max ≥15V</t>
     </r>
+  </si>
+  <si>
+    <t>Crystal_SMD_3225-4pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t>Crystal, 16MHz, 3.2 x 2.5mm</t>
+  </si>
+  <si>
+    <t>X1E000021037500</t>
   </si>
 </sst>
 </file>
@@ -1380,6 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,7 +1393,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
@@ -1800,10 +1800,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1926,22 +1926,22 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1984,20 +1984,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="25">
-      <c r="A1" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="14">
       <c r="A2" s="5" t="s">
@@ -2054,10 +2054,10 @@
         <v>73</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="5">
         <f>(2*6)</f>
@@ -2089,10 +2089,10 @@
         <v>73</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="5">
         <f>(2*2)</f>
@@ -2103,7 +2103,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="5"/>
     </row>
@@ -2124,10 +2124,10 @@
         <v>73</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="5">
         <f>(2*2)</f>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="5"/>
     </row>
@@ -2159,10 +2159,10 @@
         <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="5">
         <f>(2*4)</f>
@@ -2173,7 +2173,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="5"/>
     </row>
@@ -2194,10 +2194,10 @@
         <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="5">
         <f>(2*68)</f>
@@ -2215,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="19">
         <v>2</v>
@@ -2227,10 +2227,10 @@
         <v>74</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="H8" s="5">
         <f>(2*2)</f>
@@ -2260,10 +2260,10 @@
         <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="5">
         <f>(2*1)</f>
@@ -2274,11 +2274,9 @@
         <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>114</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="A10" s="19">
@@ -2300,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
@@ -2311,7 +2309,9 @@
         <v>29</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="17" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1">
       <c r="A11" s="19">
@@ -2330,10 +2330,10 @@
         <v>34</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="5">
         <f>(2*3)</f>
@@ -2351,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="19">
         <v>4</v>
@@ -2363,10 +2363,10 @@
         <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5">
         <f>(2*4)</f>
@@ -2396,10 +2396,10 @@
         <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="5">
         <f>(2*8)</f>
@@ -2429,10 +2429,10 @@
         <v>76</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="5">
         <f>(2*4)</f>
@@ -2462,10 +2462,10 @@
         <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="5">
         <f>(2*2)</f>
@@ -2495,10 +2495,10 @@
         <v>76</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="5">
         <f>(2*68)</f>
@@ -2528,10 +2528,10 @@
         <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="5">
         <f>(2*4)</f>
@@ -2555,16 +2555,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>86</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="5">
         <f>(2*4)</f>
@@ -2594,10 +2594,10 @@
         <v>77</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="5">
         <f>(2*45)</f>
@@ -2627,10 +2627,10 @@
         <v>78</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5">
         <f>2*4</f>
@@ -2640,10 +2640,8 @@
       <c r="J20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="17" t="s">
-        <v>102</v>
-      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1">
       <c r="A21" s="19">
@@ -2662,10 +2660,10 @@
         <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="5">
         <f>(2*12)</f>
@@ -2679,7 +2677,9 @@
         <v>29</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="17" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1">
       <c r="A22" s="19">
@@ -2695,13 +2695,13 @@
         <v>72</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5">
         <f>2*4</f>
@@ -2956,8 +2956,8 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{162DF212-42AD-4C4C-A49C-669043FFA431}"/>
-    <hyperlink ref="L9" r:id="rId2" xr:uid="{EE35E951-EE56-4D3B-BBA2-237225290EF4}"/>
+    <hyperlink ref="L21" r:id="rId1" xr:uid="{162DF212-42AD-4C4C-A49C-669043FFA431}"/>
+    <hyperlink ref="L10" r:id="rId2" xr:uid="{EE35E951-EE56-4D3B-BBA2-237225290EF4}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
@@ -2976,7 +2976,7 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
